--- a/uCT+compression_(razem)/Zbiorczo.xlsx
+++ b/uCT+compression_(razem)/Zbiorczo.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="960" windowWidth="32840" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="25000" yWindow="0" windowWidth="32840" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -341,7 +341,7 @@
                     <c:v>15.89623</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>13.6165</c:v>
+                    <c:v>15.70699</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -452,7 +452,7 @@
                     <c:v>15.89623</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>13.6165</c:v>
+                    <c:v>15.70699</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -682,7 +682,7 @@
                   <c:v>76.32367000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>76.32250000000001</c:v>
+                  <c:v>94.34266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -690,7 +690,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -698,11 +697,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2139701864"/>
-        <c:axId val="2139108856"/>
+        <c:axId val="2125736040"/>
+        <c:axId val="2125741480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2139701864"/>
+        <c:axId val="2125736040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -731,12 +730,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139108856"/>
+        <c:crossAx val="2125741480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2139108856"/>
+        <c:axId val="2125741480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,7 +770,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139701864"/>
+        <c:crossAx val="2125736040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1153,7 +1152,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1812,10 +1811,10 @@
         <v>0.83399999999999996</v>
       </c>
       <c r="B35" s="1">
-        <v>76.322500000000005</v>
+        <v>94.342659999999995</v>
       </c>
       <c r="C35" s="1">
-        <v>13.6165</v>
+        <v>15.706989999999999</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>16</v>

--- a/uCT+compression_(razem)/Zbiorczo.xlsx
+++ b/uCT+compression_(razem)/Zbiorczo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25000" yWindow="0" windowWidth="32840" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="12900" yWindow="13240" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>Porosity</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>K05LA1</t>
+  </si>
+  <si>
+    <t>Youngs Module 2</t>
+  </si>
+  <si>
+    <t>Deviation 2</t>
   </si>
 </sst>
 </file>
@@ -237,7 +243,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$C$2:$C$35</c:f>
+                <c:f>Sheet1!$D$2:$D$35</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="34"/>
@@ -348,7 +354,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$C$2:$C$35</c:f>
+                <c:f>Sheet1!$D$2:$D$35</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="34"/>
@@ -697,11 +703,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2125736040"/>
-        <c:axId val="2125741480"/>
+        <c:axId val="-2105663000"/>
+        <c:axId val="-2105629592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2125736040"/>
+        <c:axId val="-2105663000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -730,12 +736,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125741480"/>
+        <c:crossAx val="-2105629592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2125741480"/>
+        <c:axId val="-2105629592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -770,7 +776,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125736040"/>
+        <c:crossAx val="-2105663000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -796,13 +802,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -1149,677 +1155,683 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="5" width="10.83203125" style="1"/>
+    <col min="1" max="7" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:12" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="30">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="30">
       <c r="A2" s="1">
         <v>0.79500000000000004</v>
       </c>
       <c r="B2" s="1">
         <v>120.2458</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>22.260439999999999</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1">
+      <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="30">
       <c r="A3" s="1">
         <v>0.79600000000000004</v>
       </c>
       <c r="B3" s="1">
         <v>138.16</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>16.64066</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1">
+      <c r="G3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="30">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="30">
       <c r="A4" s="1">
         <v>0.79500000000000004</v>
       </c>
       <c r="B4" s="1">
         <v>107.146</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>17.69098</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <v>3</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="30">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="30">
       <c r="A5" s="1">
         <v>0.67700000000000005</v>
       </c>
       <c r="B5" s="1">
         <v>122.55329999999999</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>11.9514</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="30">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="30">
       <c r="A6" s="1">
         <v>0.66100000000000003</v>
       </c>
       <c r="B6" s="1">
         <v>141.465</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>15.03735</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1">
+      <c r="G6" s="1">
         <v>2</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="30">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="30">
       <c r="A7" s="1">
         <v>0.66200000000000003</v>
       </c>
       <c r="B7" s="1">
         <v>113.7833</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>8.3253880000000002</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1">
+      <c r="G7" s="1">
         <v>3</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="30">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="30">
       <c r="A8" s="1">
         <v>0.88300000000000001</v>
       </c>
       <c r="B8" s="1">
         <v>69.26925</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>8.9394629999999999</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1">
+      <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="30">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="30">
       <c r="A9" s="1">
         <v>0.877</v>
       </c>
       <c r="B9" s="1">
         <v>105.2865</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>6.3232840000000001</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="1">
+      <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="30">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="30">
       <c r="A10" s="1">
         <v>0.88</v>
       </c>
       <c r="B10" s="1">
         <v>73.793000000000006</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>7.5372250000000003</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="1">
+      <c r="G10" s="1">
         <v>3</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>0.69699999999999995</v>
       </c>
       <c r="B11" s="1">
         <v>142.10400000000001</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>12.72762</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="1">
+      <c r="G11" s="1">
         <v>2</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>0.69899999999999995</v>
       </c>
       <c r="B12" s="1">
         <v>143.9383</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>11.7715</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="1">
+      <c r="G12" s="1">
         <v>3</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>0.64500000000000002</v>
       </c>
       <c r="B13" s="1">
         <v>150.47999999999999</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>7.310073</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="1">
+      <c r="G13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>0.65</v>
       </c>
       <c r="B14" s="1">
         <v>145.48500000000001</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>5.5311139999999996</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="1">
+      <c r="G14" s="1">
         <v>2</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>0.64600000000000002</v>
       </c>
       <c r="B15" s="1">
         <v>132.2525</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>18.354970000000002</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="1">
+      <c r="G15" s="1">
         <v>3</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>0.83799999999999997</v>
       </c>
       <c r="B16" s="1">
         <v>117.455</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>7.4688439999999998</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="1">
+      <c r="G16" s="1">
         <v>1</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>0.83399999999999996</v>
       </c>
       <c r="B17" s="1">
         <v>77.036670000000001</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>4.4749249999999998</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="1">
+      <c r="G17" s="1">
         <v>2</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>0.73499999999999999</v>
       </c>
       <c r="B18" s="1">
         <v>106.2273</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>6.6006270000000002</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="1">
+      <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>0.73399999999999999</v>
       </c>
       <c r="B19" s="1">
         <v>121.3567</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>3.64811</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="1">
+      <c r="G19" s="1">
         <v>2</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>0.73199999999999998</v>
       </c>
       <c r="B20" s="1">
         <v>131.47669999999999</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>14.953580000000001</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="1">
+      <c r="G20" s="1">
         <v>3</v>
       </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>0.626</v>
       </c>
       <c r="B21" s="1">
         <v>152.465</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>11.98908</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="1">
+      <c r="G21" s="1">
         <v>1</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>0.625</v>
       </c>
       <c r="B22" s="1">
         <v>133.38499999999999</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>4.5773489999999999</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="1">
+      <c r="G22" s="1">
         <v>2</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>0.628</v>
       </c>
       <c r="B23" s="1">
         <v>151.755</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>10.62941</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="1">
+      <c r="G23" s="1">
         <v>3</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>0.84499999999999997</v>
       </c>
       <c r="B24" s="1">
         <v>69.661000000000001</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>8.0517880000000002</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="1">
+      <c r="G24" s="1">
         <v>1</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>0.84399999999999997</v>
       </c>
       <c r="B25" s="1">
         <v>80.061999999999998</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
         <v>7.7090019999999999</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="1">
+      <c r="G25" s="1">
         <v>2</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>0.84399999999999997</v>
       </c>
       <c r="B26" s="1">
         <v>90.271330000000006</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D26" s="1">
         <v>9.1276159999999997</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="1">
+      <c r="G26" s="1">
         <v>3</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>0.66700000000000004</v>
       </c>
       <c r="B27" s="1">
         <v>140.04329999999999</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D27" s="1">
         <v>10.335570000000001</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="1">
+      <c r="G27" s="1">
         <v>1</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>0.66500000000000004</v>
       </c>
       <c r="B28" s="1">
         <v>125.4633</v>
       </c>
-      <c r="C28" s="1">
+      <c r="D28" s="1">
         <v>10.984450000000001</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="1">
+      <c r="G28" s="1">
         <v>2</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>0.66600000000000004</v>
       </c>
       <c r="B29" s="1">
         <v>152.16249999999999</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
         <v>12.808199999999999</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="1">
+      <c r="G29" s="1">
         <v>3</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>0.69699999999999995</v>
       </c>
       <c r="B30" s="1">
         <v>124.5617</v>
       </c>
-      <c r="C30" s="1">
+      <c r="D30" s="1">
         <v>19.115870000000001</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="1">
+      <c r="G30" s="1">
         <v>1</v>
       </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>0.69299999999999995</v>
       </c>
       <c r="B31" s="1">
         <v>139.3075</v>
       </c>
-      <c r="C31" s="1">
+      <c r="D31" s="1">
         <v>12.923780000000001</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="1">
+      <c r="G31" s="1">
         <v>2</v>
       </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>0.69299999999999995</v>
       </c>
       <c r="B32" s="1">
         <v>130.708</v>
       </c>
-      <c r="C32" s="1">
+      <c r="D32" s="1">
         <v>16.249099999999999</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="1">
+      <c r="G32" s="1">
         <v>3</v>
       </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
         <v>0.84299999999999997</v>
       </c>
       <c r="B33" s="1">
         <v>113.402</v>
       </c>
-      <c r="C33" s="1">
+      <c r="D33" s="1">
         <v>11.1435</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="1">
+      <c r="G33" s="1">
         <v>1</v>
       </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>0.83499999999999996</v>
       </c>
       <c r="B34" s="1">
         <v>76.323670000000007</v>
       </c>
-      <c r="C34" s="1">
+      <c r="D34" s="1">
         <v>15.896229999999999</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="1">
+      <c r="G34" s="1">
         <v>2</v>
       </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <v>0.83399999999999996</v>
       </c>
       <c r="B35" s="1">
         <v>94.342659999999995</v>
       </c>
-      <c r="C35" s="1">
+      <c r="D35" s="1">
         <v>15.706989999999999</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="1">
+      <c r="G35" s="1">
         <v>3</v>
       </c>
     </row>

--- a/uCT+compression_(razem)/Zbiorczo.xlsx
+++ b/uCT+compression_(razem)/Zbiorczo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="13240" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,10 +72,10 @@
     <t>K05LA1</t>
   </si>
   <si>
-    <t>Youngs Module 2</t>
+    <t>Youngs Module (without cutting)</t>
   </si>
   <si>
-    <t>Deviation 2</t>
+    <t>Deviation (without cutting)</t>
   </si>
 </sst>
 </file>
@@ -157,8 +157,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -187,13 +189,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -278,7 +282,7 @@
                     <c:v>12.72762</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>11.7715</c:v>
+                    <c:v>2.5204</c:v>
                   </c:pt>
                   <c:pt idx="11">
                     <c:v>7.310073</c:v>
@@ -287,7 +291,7 @@
                     <c:v>5.531114</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>18.35497</c:v>
+                    <c:v>1.0212</c:v>
                   </c:pt>
                   <c:pt idx="14">
                     <c:v>7.468844</c:v>
@@ -347,7 +351,7 @@
                     <c:v>15.89623</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>15.70699</c:v>
+                    <c:v>13.6165</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -389,7 +393,7 @@
                     <c:v>12.72762</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>11.7715</c:v>
+                    <c:v>2.5204</c:v>
                   </c:pt>
                   <c:pt idx="11">
                     <c:v>7.310073</c:v>
@@ -398,7 +402,7 @@
                     <c:v>5.531114</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>18.35497</c:v>
+                    <c:v>1.0212</c:v>
                   </c:pt>
                   <c:pt idx="14">
                     <c:v>7.468844</c:v>
@@ -458,7 +462,7 @@
                     <c:v>15.89623</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>15.70699</c:v>
+                    <c:v>13.6165</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -619,7 +623,7 @@
                   <c:v>142.104</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>143.9383</c:v>
+                  <c:v>151.4425</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>150.48</c:v>
@@ -628,7 +632,7 @@
                   <c:v>145.485</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>132.2525</c:v>
+                  <c:v>142.8333</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>117.455</c:v>
@@ -688,7 +692,7 @@
                   <c:v>76.32367000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>94.34266</c:v>
+                  <c:v>76.35250000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -703,11 +707,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2105663000"/>
-        <c:axId val="-2105629592"/>
+        <c:axId val="2129245784"/>
+        <c:axId val="2129294008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2105663000"/>
+        <c:axId val="2129245784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,12 +740,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2105629592"/>
+        <c:crossAx val="2129294008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2105629592"/>
+        <c:axId val="2129294008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,7 +780,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2105663000"/>
+        <c:crossAx val="2129245784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1158,7 +1162,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1166,7 +1170,7 @@
     <col min="1" max="7" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30">
+    <row r="1" spans="1:12" ht="60">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1198,8 +1202,14 @@
       <c r="B2" s="1">
         <v>120.2458</v>
       </c>
+      <c r="C2" s="1">
+        <v>119.9144</v>
+      </c>
       <c r="D2" s="1">
         <v>22.260439999999999</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20.276900000000001</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
@@ -1217,8 +1227,14 @@
       <c r="B3" s="1">
         <v>138.16</v>
       </c>
+      <c r="C3" s="1">
+        <v>135.09399999999999</v>
+      </c>
       <c r="D3" s="1">
         <v>16.64066</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20.4831</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>5</v>
@@ -1236,8 +1252,14 @@
       <c r="B4" s="1">
         <v>107.146</v>
       </c>
+      <c r="C4" s="1">
+        <v>107.0868</v>
+      </c>
       <c r="D4" s="1">
         <v>17.69098</v>
+      </c>
+      <c r="E4" s="1">
+        <v>19.372499999999999</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
@@ -1255,8 +1277,14 @@
       <c r="B5" s="1">
         <v>122.55329999999999</v>
       </c>
+      <c r="C5" s="1">
+        <v>115.9383</v>
+      </c>
       <c r="D5" s="1">
         <v>11.9514</v>
+      </c>
+      <c r="E5" s="1">
+        <v>12.927099999999999</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
@@ -1274,8 +1302,14 @@
       <c r="B6" s="1">
         <v>141.465</v>
       </c>
+      <c r="C6" s="1">
+        <v>144.38499999999999</v>
+      </c>
       <c r="D6" s="1">
         <v>15.03735</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6.1291000000000002</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>6</v>
@@ -1293,8 +1327,14 @@
       <c r="B7" s="1">
         <v>113.7833</v>
       </c>
+      <c r="C7" s="1">
+        <v>105.75230000000001</v>
+      </c>
       <c r="D7" s="1">
         <v>8.3253880000000002</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9.6501000000000001</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>6</v>
@@ -1312,8 +1352,14 @@
       <c r="B8" s="1">
         <v>69.26925</v>
       </c>
+      <c r="C8" s="1">
+        <v>70.031000000000006</v>
+      </c>
       <c r="D8" s="1">
         <v>8.9394629999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8.8190000000000008</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
@@ -1331,8 +1377,14 @@
       <c r="B9" s="1">
         <v>105.2865</v>
       </c>
+      <c r="C9" s="1">
+        <v>104.25</v>
+      </c>
       <c r="D9" s="1">
         <v>6.3232840000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.3294999999999999</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
@@ -1350,8 +1402,14 @@
       <c r="B10" s="1">
         <v>73.793000000000006</v>
       </c>
+      <c r="C10" s="1">
+        <v>74.967200000000005</v>
+      </c>
       <c r="D10" s="1">
         <v>7.5372250000000003</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6.9802</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>
@@ -1369,8 +1427,14 @@
       <c r="B11" s="1">
         <v>142.10400000000001</v>
       </c>
+      <c r="C11" s="1">
+        <v>141.63999999999999</v>
+      </c>
       <c r="D11" s="1">
         <v>12.72762</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8.6662999999999997</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -1386,10 +1450,16 @@
         <v>0.69899999999999995</v>
       </c>
       <c r="B12" s="1">
-        <v>143.9383</v>
+        <v>151.4425</v>
+      </c>
+      <c r="C12" s="1">
+        <v>151.7775</v>
       </c>
       <c r="D12" s="1">
-        <v>11.7715</v>
+        <v>2.5204</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8.4776000000000007</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -1407,8 +1477,14 @@
       <c r="B13" s="1">
         <v>150.47999999999999</v>
       </c>
+      <c r="C13" s="1">
+        <v>154.15600000000001</v>
+      </c>
       <c r="D13" s="1">
         <v>7.310073</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7.1643999999999997</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1426,8 +1502,14 @@
       <c r="B14" s="1">
         <v>145.48500000000001</v>
       </c>
+      <c r="C14" s="1">
+        <v>146.73750000000001</v>
+      </c>
       <c r="D14" s="1">
         <v>5.5311139999999996</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3.1227999999999998</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
@@ -1443,10 +1525,16 @@
         <v>0.64600000000000002</v>
       </c>
       <c r="B15" s="1">
-        <v>132.2525</v>
+        <v>142.83330000000001</v>
+      </c>
+      <c r="C15" s="1">
+        <v>144.06</v>
       </c>
       <c r="D15" s="1">
-        <v>18.354970000000002</v>
+        <v>1.0212000000000001</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.6619000000000002</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -1502,8 +1590,14 @@
       <c r="B18" s="1">
         <v>106.2273</v>
       </c>
+      <c r="C18" s="1">
+        <v>104.699</v>
+      </c>
       <c r="D18" s="1">
         <v>6.6006270000000002</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7.2103999999999999</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
@@ -1521,8 +1615,14 @@
       <c r="B19" s="1">
         <v>121.3567</v>
       </c>
+      <c r="C19" s="1">
+        <v>120.527</v>
+      </c>
       <c r="D19" s="1">
         <v>3.64811</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.0219</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
@@ -1540,8 +1640,14 @@
       <c r="B20" s="1">
         <v>131.47669999999999</v>
       </c>
+      <c r="C20" s="1">
+        <v>128.48330000000001</v>
+      </c>
       <c r="D20" s="1">
         <v>14.953580000000001</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8.2385000000000002</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
@@ -1559,8 +1665,14 @@
       <c r="B21" s="1">
         <v>152.465</v>
       </c>
+      <c r="C21" s="1">
+        <v>155.46250000000001</v>
+      </c>
       <c r="D21" s="1">
         <v>11.98908</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4.8127000000000004</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>12</v>
@@ -1578,8 +1690,14 @@
       <c r="B22" s="1">
         <v>133.38499999999999</v>
       </c>
+      <c r="C22" s="1">
+        <v>130.77000000000001</v>
+      </c>
       <c r="D22" s="1">
         <v>4.5773489999999999</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.1063000000000001</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>12</v>
@@ -1597,8 +1715,14 @@
       <c r="B23" s="1">
         <v>151.755</v>
       </c>
+      <c r="C23" s="1">
+        <v>149.72749999999999</v>
+      </c>
       <c r="D23" s="1">
         <v>10.62941</v>
+      </c>
+      <c r="E23" s="1">
+        <v>6.0113000000000003</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>12</v>
@@ -1616,8 +1740,14 @@
       <c r="B24" s="1">
         <v>69.661000000000001</v>
       </c>
+      <c r="C24" s="1">
+        <v>65.813599999999994</v>
+      </c>
       <c r="D24" s="1">
         <v>8.0517880000000002</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4.6601999999999997</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>13</v>
@@ -1635,8 +1765,14 @@
       <c r="B25" s="1">
         <v>80.061999999999998</v>
       </c>
+      <c r="C25" s="1">
+        <v>80.492000000000004</v>
+      </c>
       <c r="D25" s="1">
         <v>7.7090019999999999</v>
+      </c>
+      <c r="E25" s="1">
+        <v>7.8902999999999999</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>13</v>
@@ -1654,8 +1790,14 @@
       <c r="B26" s="1">
         <v>90.271330000000006</v>
       </c>
+      <c r="C26" s="1">
+        <v>93.965999999999994</v>
+      </c>
       <c r="D26" s="1">
         <v>9.1276159999999997</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.7384599999999999</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>13</v>
@@ -1673,8 +1815,14 @@
       <c r="B27" s="1">
         <v>140.04329999999999</v>
       </c>
+      <c r="C27" s="1">
+        <v>138.5033</v>
+      </c>
       <c r="D27" s="1">
         <v>10.335570000000001</v>
+      </c>
+      <c r="E27" s="1">
+        <v>9.7705000000000002</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>14</v>
@@ -1692,8 +1840,14 @@
       <c r="B28" s="1">
         <v>125.4633</v>
       </c>
+      <c r="C28" s="1">
+        <v>127.2167</v>
+      </c>
       <c r="D28" s="1">
         <v>10.984450000000001</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4.8891</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>14</v>
@@ -1711,8 +1865,14 @@
       <c r="B29" s="1">
         <v>152.16249999999999</v>
       </c>
+      <c r="C29" s="1">
+        <v>157.29</v>
+      </c>
       <c r="D29" s="1">
         <v>12.808199999999999</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3.2040999999999999</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>14</v>
@@ -1730,8 +1890,14 @@
       <c r="B30" s="1">
         <v>124.5617</v>
       </c>
+      <c r="C30" s="1">
+        <v>133.61670000000001</v>
+      </c>
       <c r="D30" s="1">
         <v>19.115870000000001</v>
+      </c>
+      <c r="E30" s="1">
+        <v>6.7698999999999998</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>15</v>
@@ -1749,8 +1915,14 @@
       <c r="B31" s="1">
         <v>139.3075</v>
       </c>
+      <c r="C31" s="1">
+        <v>134.655</v>
+      </c>
       <c r="D31" s="1">
         <v>12.923780000000001</v>
+      </c>
+      <c r="E31" s="1">
+        <v>7.6550000000000002</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>15</v>
@@ -1768,8 +1940,14 @@
       <c r="B32" s="1">
         <v>130.708</v>
       </c>
+      <c r="C32" s="1">
+        <v>128.352</v>
+      </c>
       <c r="D32" s="1">
         <v>16.249099999999999</v>
+      </c>
+      <c r="E32" s="1">
+        <v>14.5474</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>15</v>
@@ -1787,8 +1965,14 @@
       <c r="B33" s="1">
         <v>113.402</v>
       </c>
+      <c r="C33" s="1">
+        <v>110.773</v>
+      </c>
       <c r="D33" s="1">
         <v>11.1435</v>
+      </c>
+      <c r="E33" s="1">
+        <v>11.697699999999999</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>16</v>
@@ -1806,8 +1990,14 @@
       <c r="B34" s="1">
         <v>76.323670000000007</v>
       </c>
+      <c r="C34" s="1">
+        <v>76.9756</v>
+      </c>
       <c r="D34" s="1">
         <v>15.896229999999999</v>
+      </c>
+      <c r="E34" s="1">
+        <v>14.992699999999999</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>16</v>
@@ -1823,9 +2013,15 @@
         <v>0.83399999999999996</v>
       </c>
       <c r="B35" s="1">
-        <v>94.342659999999995</v>
+        <v>76.352500000000006</v>
+      </c>
+      <c r="C35" s="1">
+        <v>94.342600000000004</v>
       </c>
       <c r="D35" s="1">
+        <v>13.6165</v>
+      </c>
+      <c r="E35" s="1">
         <v>15.706989999999999</v>
       </c>
       <c r="F35" s="1" t="s">

--- a/uCT+compression_(razem)/Zbiorczo.xlsx
+++ b/uCT+compression_(razem)/Zbiorczo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t>Porosity</t>
   </si>
@@ -220,7 +220,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -247,10 +246,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$D$2:$D$35</c:f>
+                <c:f>Sheet1!$D$2:$D$36</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="34"/>
+                  <c:ptCount val="35"/>
                   <c:pt idx="0">
                     <c:v>22.26044</c:v>
                   </c:pt>
@@ -300,57 +299,60 @@
                     <c:v>4.474925</c:v>
                   </c:pt>
                   <c:pt idx="16">
+                    <c:v>10.1004</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
                     <c:v>6.600627</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>3.64811</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
                     <c:v>14.95358</c:v>
                   </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="20">
                     <c:v>11.98908</c:v>
                   </c:pt>
-                  <c:pt idx="20">
+                  <c:pt idx="21">
                     <c:v>4.577349</c:v>
                   </c:pt>
-                  <c:pt idx="21">
+                  <c:pt idx="22">
                     <c:v>10.62941</c:v>
                   </c:pt>
-                  <c:pt idx="22">
+                  <c:pt idx="23">
                     <c:v>8.051788</c:v>
                   </c:pt>
-                  <c:pt idx="23">
+                  <c:pt idx="24">
                     <c:v>7.709002</c:v>
                   </c:pt>
-                  <c:pt idx="24">
+                  <c:pt idx="25">
                     <c:v>9.127616</c:v>
                   </c:pt>
-                  <c:pt idx="25">
+                  <c:pt idx="26">
                     <c:v>10.33557</c:v>
                   </c:pt>
-                  <c:pt idx="26">
+                  <c:pt idx="27">
                     <c:v>10.98445</c:v>
                   </c:pt>
-                  <c:pt idx="27">
+                  <c:pt idx="28">
                     <c:v>12.8082</c:v>
                   </c:pt>
-                  <c:pt idx="28">
+                  <c:pt idx="29">
                     <c:v>19.11587</c:v>
                   </c:pt>
-                  <c:pt idx="29">
+                  <c:pt idx="30">
                     <c:v>12.92378</c:v>
                   </c:pt>
-                  <c:pt idx="30">
+                  <c:pt idx="31">
                     <c:v>16.2491</c:v>
                   </c:pt>
-                  <c:pt idx="31">
+                  <c:pt idx="32">
                     <c:v>11.1435</c:v>
                   </c:pt>
-                  <c:pt idx="32">
+                  <c:pt idx="33">
                     <c:v>15.89623</c:v>
                   </c:pt>
-                  <c:pt idx="33">
+                  <c:pt idx="34">
                     <c:v>13.6165</c:v>
                   </c:pt>
                 </c:numCache>
@@ -358,10 +360,10 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$D$2:$D$35</c:f>
+                <c:f>Sheet1!$D$2:$D$36</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="34"/>
+                  <c:ptCount val="35"/>
                   <c:pt idx="0">
                     <c:v>22.26044</c:v>
                   </c:pt>
@@ -411,57 +413,60 @@
                     <c:v>4.474925</c:v>
                   </c:pt>
                   <c:pt idx="16">
+                    <c:v>10.1004</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
                     <c:v>6.600627</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>3.64811</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
                     <c:v>14.95358</c:v>
                   </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="20">
                     <c:v>11.98908</c:v>
                   </c:pt>
-                  <c:pt idx="20">
+                  <c:pt idx="21">
                     <c:v>4.577349</c:v>
                   </c:pt>
-                  <c:pt idx="21">
+                  <c:pt idx="22">
                     <c:v>10.62941</c:v>
                   </c:pt>
-                  <c:pt idx="22">
+                  <c:pt idx="23">
                     <c:v>8.051788</c:v>
                   </c:pt>
-                  <c:pt idx="23">
+                  <c:pt idx="24">
                     <c:v>7.709002</c:v>
                   </c:pt>
-                  <c:pt idx="24">
+                  <c:pt idx="25">
                     <c:v>9.127616</c:v>
                   </c:pt>
-                  <c:pt idx="25">
+                  <c:pt idx="26">
                     <c:v>10.33557</c:v>
                   </c:pt>
-                  <c:pt idx="26">
+                  <c:pt idx="27">
                     <c:v>10.98445</c:v>
                   </c:pt>
-                  <c:pt idx="27">
+                  <c:pt idx="28">
                     <c:v>12.8082</c:v>
                   </c:pt>
-                  <c:pt idx="28">
+                  <c:pt idx="29">
                     <c:v>19.11587</c:v>
                   </c:pt>
-                  <c:pt idx="29">
+                  <c:pt idx="30">
                     <c:v>12.92378</c:v>
                   </c:pt>
-                  <c:pt idx="30">
+                  <c:pt idx="31">
                     <c:v>16.2491</c:v>
                   </c:pt>
-                  <c:pt idx="31">
+                  <c:pt idx="32">
                     <c:v>11.1435</c:v>
                   </c:pt>
-                  <c:pt idx="32">
+                  <c:pt idx="33">
                     <c:v>15.89623</c:v>
                   </c:pt>
-                  <c:pt idx="33">
+                  <c:pt idx="34">
                     <c:v>13.6165</c:v>
                   </c:pt>
                 </c:numCache>
@@ -477,10 +482,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$35</c:f>
+              <c:f>Sheet1!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.795</c:v>
                 </c:pt>
@@ -529,58 +534,58 @@
                 <c:pt idx="15">
                   <c:v>0.834</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>0.735</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>0.734</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>0.732</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>0.626</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>0.625</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>0.628</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>0.845</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.844</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.844</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>0.844</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0.667</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>0.665</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>0.666</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>0.697</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.693</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.693</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>0.693</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0.843</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>0.835</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>0.834</c:v>
                 </c:pt>
               </c:numCache>
@@ -588,10 +593,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$35</c:f>
+              <c:f>Sheet1!$B$2:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>120.2458</c:v>
                 </c:pt>
@@ -641,57 +646,60 @@
                   <c:v>77.03667</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>57.0392</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>106.2273</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>121.3567</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>131.4767</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>152.465</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>133.385</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>151.755</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>69.661</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>80.062</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>90.27133000000001</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>140.0433</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>125.4633</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>152.1625</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>124.5617</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>139.3075</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>130.708</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>113.402</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>76.32367000000001</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>76.35250000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -707,11 +715,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2129245784"/>
-        <c:axId val="2129294008"/>
+        <c:axId val="-2098599800"/>
+        <c:axId val="-2098603960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2129245784"/>
+        <c:axId val="-2098599800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,19 +741,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129294008"/>
+        <c:crossAx val="-2098603960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2129294008"/>
+        <c:axId val="-2098603960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -773,21 +780,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129245784"/>
+        <c:crossAx val="-2098599800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -814,7 +819,7 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1159,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1552,8 +1557,14 @@
       <c r="B16" s="1">
         <v>117.455</v>
       </c>
+      <c r="C16" s="1">
+        <v>119.595</v>
+      </c>
       <c r="D16" s="1">
         <v>7.4688439999999998</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3.3132000000000001</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
@@ -1571,9 +1582,15 @@
       <c r="B17" s="1">
         <v>77.036670000000001</v>
       </c>
+      <c r="C17" s="1">
+        <v>82.852999999999994</v>
+      </c>
       <c r="D17" s="1">
         <v>4.4749249999999998</v>
       </c>
+      <c r="E17" s="1">
+        <v>2.9108000000000001</v>
+      </c>
       <c r="F17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1584,201 +1601,198 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="1">
-        <v>0.73499999999999999</v>
-      </c>
       <c r="B18" s="1">
-        <v>106.2273</v>
+        <v>57.039200000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>104.699</v>
+        <v>62.002299999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>6.6006270000000002</v>
+        <v>10.1004</v>
       </c>
       <c r="E18" s="1">
-        <v>7.2103999999999999</v>
+        <v>4.9484000000000004</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1">
-        <v>0.73399999999999999</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="B19" s="1">
-        <v>121.3567</v>
+        <v>106.2273</v>
       </c>
       <c r="C19" s="1">
-        <v>120.527</v>
+        <v>104.699</v>
       </c>
       <c r="D19" s="1">
-        <v>3.64811</v>
+        <v>6.6006270000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>1.0219</v>
+        <v>7.2103999999999999</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1">
-        <v>0.73199999999999998</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="B20" s="1">
-        <v>131.47669999999999</v>
+        <v>121.3567</v>
       </c>
       <c r="C20" s="1">
-        <v>128.48330000000001</v>
+        <v>120.527</v>
       </c>
       <c r="D20" s="1">
-        <v>14.953580000000001</v>
+        <v>3.64811</v>
       </c>
       <c r="E20" s="1">
-        <v>8.2385000000000002</v>
+        <v>1.0219</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1">
-        <v>0.626</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="B21" s="1">
-        <v>152.465</v>
+        <v>131.47669999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>155.46250000000001</v>
+        <v>128.48330000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>11.98908</v>
+        <v>14.953580000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>4.8127000000000004</v>
+        <v>8.2385000000000002</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1">
-        <v>0.625</v>
+        <v>0.626</v>
       </c>
       <c r="B22" s="1">
-        <v>133.38499999999999</v>
+        <v>152.465</v>
       </c>
       <c r="C22" s="1">
-        <v>130.77000000000001</v>
+        <v>155.46250000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>4.5773489999999999</v>
+        <v>11.98908</v>
       </c>
       <c r="E22" s="1">
-        <v>2.1063000000000001</v>
+        <v>4.8127000000000004</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1">
-        <v>0.628</v>
+        <v>0.625</v>
       </c>
       <c r="B23" s="1">
-        <v>151.755</v>
+        <v>133.38499999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>149.72749999999999</v>
+        <v>130.77000000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>10.62941</v>
+        <v>4.5773489999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>6.0113000000000003</v>
+        <v>2.1063000000000001</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1">
-        <v>0.84499999999999997</v>
+        <v>0.628</v>
       </c>
       <c r="B24" s="1">
-        <v>69.661000000000001</v>
+        <v>151.755</v>
       </c>
       <c r="C24" s="1">
-        <v>65.813599999999994</v>
+        <v>149.72749999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>8.0517880000000002</v>
+        <v>10.62941</v>
       </c>
       <c r="E24" s="1">
-        <v>4.6601999999999997</v>
+        <v>6.0113000000000003</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1">
-        <v>0.84399999999999997</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="B25" s="1">
-        <v>80.061999999999998</v>
+        <v>69.661000000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>80.492000000000004</v>
+        <v>65.813599999999994</v>
       </c>
       <c r="D25" s="1">
-        <v>7.7090019999999999</v>
+        <v>8.0517880000000002</v>
       </c>
       <c r="E25" s="1">
-        <v>7.8902999999999999</v>
+        <v>4.6601999999999997</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1788,147 +1802,147 @@
         <v>0.84399999999999997</v>
       </c>
       <c r="B26" s="1">
-        <v>90.271330000000006</v>
+        <v>80.061999999999998</v>
       </c>
       <c r="C26" s="1">
-        <v>93.965999999999994</v>
+        <v>80.492000000000004</v>
       </c>
       <c r="D26" s="1">
-        <v>9.1276159999999997</v>
+        <v>7.7090019999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>1.7384599999999999</v>
+        <v>7.8902999999999999</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1">
-        <v>0.66700000000000004</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="B27" s="1">
-        <v>140.04329999999999</v>
+        <v>90.271330000000006</v>
       </c>
       <c r="C27" s="1">
-        <v>138.5033</v>
+        <v>93.965999999999994</v>
       </c>
       <c r="D27" s="1">
-        <v>10.335570000000001</v>
+        <v>9.1276159999999997</v>
       </c>
       <c r="E27" s="1">
-        <v>9.7705000000000002</v>
+        <v>1.7384599999999999</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G27" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1">
-        <v>0.66500000000000004</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="B28" s="1">
-        <v>125.4633</v>
+        <v>140.04329999999999</v>
       </c>
       <c r="C28" s="1">
-        <v>127.2167</v>
+        <v>138.5033</v>
       </c>
       <c r="D28" s="1">
-        <v>10.984450000000001</v>
+        <v>10.335570000000001</v>
       </c>
       <c r="E28" s="1">
-        <v>4.8891</v>
+        <v>9.7705000000000002</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1">
-        <v>0.66600000000000004</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="B29" s="1">
-        <v>152.16249999999999</v>
+        <v>125.4633</v>
       </c>
       <c r="C29" s="1">
-        <v>157.29</v>
+        <v>127.2167</v>
       </c>
       <c r="D29" s="1">
-        <v>12.808199999999999</v>
+        <v>10.984450000000001</v>
       </c>
       <c r="E29" s="1">
-        <v>3.2040999999999999</v>
+        <v>4.8891</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1">
-        <v>0.69699999999999995</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="B30" s="1">
-        <v>124.5617</v>
+        <v>152.16249999999999</v>
       </c>
       <c r="C30" s="1">
-        <v>133.61670000000001</v>
+        <v>157.29</v>
       </c>
       <c r="D30" s="1">
-        <v>19.115870000000001</v>
+        <v>12.808199999999999</v>
       </c>
       <c r="E30" s="1">
-        <v>6.7698999999999998</v>
+        <v>3.2040999999999999</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1">
-        <v>0.69299999999999995</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="B31" s="1">
-        <v>139.3075</v>
+        <v>124.5617</v>
       </c>
       <c r="C31" s="1">
-        <v>134.655</v>
+        <v>133.61670000000001</v>
       </c>
       <c r="D31" s="1">
-        <v>12.923780000000001</v>
+        <v>19.115870000000001</v>
       </c>
       <c r="E31" s="1">
-        <v>7.6550000000000002</v>
+        <v>6.7698999999999998</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -1938,96 +1952,121 @@
         <v>0.69299999999999995</v>
       </c>
       <c r="B32" s="1">
-        <v>130.708</v>
+        <v>139.3075</v>
       </c>
       <c r="C32" s="1">
-        <v>128.352</v>
+        <v>134.655</v>
       </c>
       <c r="D32" s="1">
-        <v>16.249099999999999</v>
+        <v>12.923780000000001</v>
       </c>
       <c r="E32" s="1">
-        <v>14.5474</v>
+        <v>7.6550000000000002</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1">
-        <v>0.84299999999999997</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="B33" s="1">
-        <v>113.402</v>
+        <v>130.708</v>
       </c>
       <c r="C33" s="1">
-        <v>110.773</v>
+        <v>128.352</v>
       </c>
       <c r="D33" s="1">
-        <v>11.1435</v>
+        <v>16.249099999999999</v>
       </c>
       <c r="E33" s="1">
-        <v>11.697699999999999</v>
+        <v>14.5474</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G33" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1">
-        <v>0.83499999999999996</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="B34" s="1">
-        <v>76.323670000000007</v>
+        <v>113.402</v>
       </c>
       <c r="C34" s="1">
-        <v>76.9756</v>
+        <v>110.773</v>
       </c>
       <c r="D34" s="1">
-        <v>15.896229999999999</v>
+        <v>11.1435</v>
       </c>
       <c r="E34" s="1">
-        <v>14.992699999999999</v>
+        <v>11.697699999999999</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1">
-        <v>0.83399999999999996</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="B35" s="1">
-        <v>76.352500000000006</v>
+        <v>76.323670000000007</v>
       </c>
       <c r="C35" s="1">
-        <v>94.342600000000004</v>
+        <v>76.9756</v>
       </c>
       <c r="D35" s="1">
-        <v>13.6165</v>
+        <v>15.896229999999999</v>
       </c>
       <c r="E35" s="1">
-        <v>15.706989999999999</v>
+        <v>14.992699999999999</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="1">
+        <v>2</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="B36" s="1">
+        <v>76.352500000000006</v>
+      </c>
+      <c r="C36" s="1">
+        <v>94.342600000000004</v>
+      </c>
+      <c r="D36" s="1">
+        <v>13.6165</v>
+      </c>
+      <c r="E36" s="1">
+        <v>15.706989999999999</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="1">
         <v>3</v>
       </c>
     </row>

--- a/uCT+compression_(razem)/Zbiorczo.xlsx
+++ b/uCT+compression_(razem)/Zbiorczo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1900" yWindow="0" windowWidth="35540" windowHeight="20820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,6 +220,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -534,6 +535,9 @@
                 <c:pt idx="15">
                   <c:v>0.834</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.836</c:v>
+                </c:pt>
                 <c:pt idx="17">
                   <c:v>0.735</c:v>
                 </c:pt>
@@ -715,11 +719,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2098599800"/>
-        <c:axId val="-2098603960"/>
+        <c:axId val="-2103640328"/>
+        <c:axId val="-2103650744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2098599800"/>
+        <c:axId val="-2103640328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,18 +745,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098603960"/>
+        <c:crossAx val="-2103650744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2098603960"/>
+        <c:axId val="-2103650744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -780,19 +785,1586 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098599800"/>
+        <c:crossAx val="-2103640328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Porosity (without cutting)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="47"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Porosity</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0.0"/>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$E$2:$E$36</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="35"/>
+                  <c:pt idx="0">
+                    <c:v>20.2769</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>20.4831</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>19.3725</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>12.9271</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.1291</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>9.6501</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.819</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.3295</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>6.9802</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>8.6663</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>8.4776</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>7.1644</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>3.1228</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2.6619</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.3132</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.9108</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>4.9484</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>7.2104</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1.0219</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>8.2385</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>4.8127</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2.1063</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>6.0113</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>4.6602</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>7.8903</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>1.73846</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>9.7705</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>4.8891</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>3.2041</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>6.7699</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>7.655</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>14.5474</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>11.6977</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>14.9927</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>15.70699</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0.795</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.677</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.661</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.662</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.883</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.877</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.697</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.645</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.646</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.838</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.836</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.735</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.734</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.732</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.626</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.628</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.845</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.844</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.844</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.667</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.665</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.666</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.697</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.693</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.693</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.843</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.835</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.834</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>119.9144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135.094</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107.0868</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115.9383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105.7523</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>104.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.9672</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>141.64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>151.7775</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>154.156</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>146.7375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>144.06</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>119.595</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82.85299999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62.0023</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>104.699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>120.527</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>128.4833</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>155.4625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>130.77</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>149.7275</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>65.8136</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>80.492</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>93.966</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>138.5033</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>127.2167</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>157.29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>133.6167</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>134.655</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>128.352</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>110.773</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>76.9756</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>94.3426</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2104451368"/>
+        <c:axId val="-2102776136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2104451368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Porosity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2102776136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2102776136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Young's</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Module</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2104451368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0.0"/>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$E$2:$E$4</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>20.2769</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>20.4831</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>19.3725</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.795</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>119.9144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135.094</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107.0868</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$E$5:$E$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>12.9271</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.1291</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.6501</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.677</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.661</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.662</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>115.9383</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>144.385</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105.7523</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$E$8:$E$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>8.819</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.3295</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.9802</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$8:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.883</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.877</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>70.031</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.9672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$E$11:$E$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>8.6663</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.4776</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$11:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.697</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$11:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>141.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151.7775</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$E$16:$E$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>3.3132</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.9108</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.9484</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$16:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.838</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.834</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.836</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>119.595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.85299999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.0023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$E$19:$E$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>7.2104</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.0219</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.2385</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$19:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.735</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.734</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.732</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$19:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>104.699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120.527</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.4833</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$E$22:$E$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>4.8127</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.1063</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.0113</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$22:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.626</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.628</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$22:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>155.4625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>149.7275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$D$25:$D$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>8.051788</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.709002</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.127616</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$25:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.845</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.844</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.844</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>65.8136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.492</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$E$28:$E$30</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>9.7705</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.8891</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.2041</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$28:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$28:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>138.5033</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127.2167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>157.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$E$31:$E$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>6.7699</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.655</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14.5474</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$31:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.697</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$31:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>133.6167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134.655</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$E$34:$E$36</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>11.6977</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14.9927</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15.70699</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$34:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.843</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.835</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.834</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$34:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>110.773</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.9756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.3426</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2096695560"/>
+        <c:axId val="-2105366136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2096695560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Porosity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2105366136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2105366136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Young's Module</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2096695560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -811,16 +2383,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -834,6 +2406,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1166,8 +2798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1601,6 +3233,9 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12">
+      <c r="A18" s="1">
+        <v>0.83599999999999997</v>
+      </c>
       <c r="B18" s="1">
         <v>57.039200000000001</v>
       </c>
